--- a/meta_stra_framwork/result/jiang/year/2015_trade.xlsx
+++ b/meta_stra_framwork/result/jiang/year/2015_trade.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="10">
   <si>
     <t>code</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>position</t>
+  </si>
+  <si>
+    <t>000001.XSHE</t>
+  </si>
+  <si>
+    <t>[1. 0. 0. 0.]</t>
+  </si>
+  <si>
+    <t>[0. 1. 0. 0.]</t>
+  </si>
+  <si>
+    <t>[0. 2. 0. 0.]</t>
   </si>
 </sst>
 </file>
@@ -389,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,6 +425,1248 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>20150105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>16.02</v>
+      </c>
+      <c r="F2">
+        <v>1602</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>20150107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>15.48</v>
+      </c>
+      <c r="F3">
+        <v>1548</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>20150313</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>14.99</v>
+      </c>
+      <c r="F4">
+        <v>1499</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>20150416</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>1700</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>20150526</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>16.62</v>
+      </c>
+      <c r="F6">
+        <v>1662</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>20150529</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>15.32</v>
+      </c>
+      <c r="F7">
+        <v>1532</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>20150608</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>17.29</v>
+      </c>
+      <c r="F8">
+        <v>1729</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>20150616</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>15.64</v>
+      </c>
+      <c r="F9">
+        <v>1564</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>20151105</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>12.07</v>
+      </c>
+      <c r="F10">
+        <v>1207</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>20151124</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>12.28</v>
+      </c>
+      <c r="F11">
+        <v>1228</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>20151221</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>12.51</v>
+      </c>
+      <c r="F12">
+        <v>1251</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>20151229</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>12.09</v>
+      </c>
+      <c r="F13">
+        <v>1209</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>20160321</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>10.8</v>
+      </c>
+      <c r="F14">
+        <v>1080</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>20160408</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>10.57</v>
+      </c>
+      <c r="F15">
+        <v>1057</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>20160411</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>10.72</v>
+      </c>
+      <c r="F16">
+        <v>1072</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>20160412</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>10.67</v>
+      </c>
+      <c r="F17">
+        <v>1067</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>20160413</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>10.81</v>
+      </c>
+      <c r="F18">
+        <v>1081</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>20160420</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>10.52</v>
+      </c>
+      <c r="F19">
+        <v>1052</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>20160608</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>10.5</v>
+      </c>
+      <c r="F20">
+        <v>1050</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20160616</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>8.57</v>
+      </c>
+      <c r="F21">
+        <v>857</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20160815</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>9.68</v>
+      </c>
+      <c r="F22">
+        <v>968</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>20160829</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>9.42</v>
+      </c>
+      <c r="F23">
+        <v>942</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>20161115</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>9.23</v>
+      </c>
+      <c r="F24">
+        <v>923</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>20161207</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>9.48</v>
+      </c>
+      <c r="F25">
+        <v>948</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>20170126</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>9.33</v>
+      </c>
+      <c r="F26">
+        <v>933</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>20170301</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>9.49</v>
+      </c>
+      <c r="F27">
+        <v>949</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>20170601</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>9.19</v>
+      </c>
+      <c r="F28">
+        <v>919</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>20170616</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>9.02</v>
+      </c>
+      <c r="F29">
+        <v>902</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>20170620</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="F30">
+        <v>911.9999999999999</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>20170727</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>10.59</v>
+      </c>
+      <c r="F31">
+        <v>1059</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>20170825</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>11.11</v>
+      </c>
+      <c r="F32">
+        <v>1111</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>20170913</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>11.43</v>
+      </c>
+      <c r="F33">
+        <v>1143</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>20171012</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>11.55</v>
+      </c>
+      <c r="F34">
+        <v>1155</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>20171023</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>11.19</v>
+      </c>
+      <c r="F35">
+        <v>1119</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>20171108</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>12.13</v>
+      </c>
+      <c r="F36">
+        <v>1213</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>20171127</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>13.93</v>
+      </c>
+      <c r="F37">
+        <v>1393</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>20171226</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>13.66</v>
+      </c>
+      <c r="F38">
+        <v>1366</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>20171227</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>13.29</v>
+      </c>
+      <c r="F39">
+        <v>1329</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>20180102</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>13.7</v>
+      </c>
+      <c r="F40">
+        <v>1370</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>20180103</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>13.33</v>
+      </c>
+      <c r="F41">
+        <v>1333</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>20180115</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>14.2</v>
+      </c>
+      <c r="F42">
+        <v>1420</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>20180129</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>13.74</v>
+      </c>
+      <c r="F43">
+        <v>1374</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>20180824</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>10.03</v>
+      </c>
+      <c r="F44">
+        <v>1003</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>20180906</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="F45">
+        <v>997.0000000000001</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>20180921</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>10.67</v>
+      </c>
+      <c r="F46">
+        <v>1067</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>20181011</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="F47">
+        <v>986</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>20181024</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>11.04</v>
+      </c>
+      <c r="F48">
+        <v>1104</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>20181101</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>10.83</v>
+      </c>
+      <c r="F49">
+        <v>1083</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>20181102</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>11.09</v>
+      </c>
+      <c r="F50">
+        <v>1109</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>20181105</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>10.92</v>
+      </c>
+      <c r="F51">
+        <v>1092</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>20190116</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>10.48</v>
+      </c>
+      <c r="F52">
+        <v>1048</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>20190311</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>12.32</v>
+      </c>
+      <c r="F53">
+        <v>1232</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>20190402</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>13.36</v>
+      </c>
+      <c r="F54">
+        <v>1336</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>20190425</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>14.13</v>
+      </c>
+      <c r="F55">
+        <v>1413</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/meta_stra_framwork/result/jiang/year/2015_trade.xlsx
+++ b/meta_stra_framwork/result/jiang/year/2015_trade.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="9">
   <si>
     <t>code</t>
   </si>
@@ -34,16 +34,13 @@
     <t>position</t>
   </si>
   <si>
-    <t>000001.XSHE</t>
+    <t>000016.XSHE</t>
   </si>
   <si>
     <t>[1. 0. 0. 0.]</t>
   </si>
   <si>
     <t>[0. 1. 0. 0.]</t>
-  </si>
-  <si>
-    <t>[0. 2. 0. 0.]</t>
   </si>
 </sst>
 </file>
@@ -401,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,7 +426,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>20150105</v>
+        <v>20150106</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -441,10 +438,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.02</v>
+        <v>6.72</v>
       </c>
       <c r="F2">
-        <v>1602</v>
+        <v>672</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -452,7 +449,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>20150107</v>
+        <v>20150113</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -464,10 +461,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.48</v>
+        <v>6.38</v>
       </c>
       <c r="F3">
-        <v>1548</v>
+        <v>638</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -475,7 +472,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>20150313</v>
+        <v>20151111</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -487,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.99</v>
+        <v>7.14</v>
       </c>
       <c r="F4">
-        <v>1499</v>
+        <v>714</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -498,7 +495,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>20150416</v>
+        <v>20151113</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -507,13 +504,13 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>17</v>
+        <v>6.77</v>
       </c>
       <c r="F5">
-        <v>1700</v>
+        <v>677</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -521,7 +518,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>20150526</v>
+        <v>20151223</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -533,10 +530,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16.62</v>
+        <v>7.28</v>
       </c>
       <c r="F6">
-        <v>1662</v>
+        <v>728</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -544,7 +541,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>20150529</v>
+        <v>20151224</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -553,13 +550,13 @@
         <v>8</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>15.32</v>
+        <v>7.31</v>
       </c>
       <c r="F7">
-        <v>1532</v>
+        <v>731</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -567,7 +564,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>20150608</v>
+        <v>20160222</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -579,10 +576,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>17.29</v>
+        <v>5.2</v>
       </c>
       <c r="F8">
-        <v>1729</v>
+        <v>520</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -590,7 +587,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>20150616</v>
+        <v>20160229</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -602,10 +599,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.64</v>
+        <v>4.91</v>
       </c>
       <c r="F9">
-        <v>1564</v>
+        <v>491</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -613,7 +610,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>20151105</v>
+        <v>20160602</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -625,10 +622,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.07</v>
+        <v>4.94</v>
       </c>
       <c r="F10">
-        <v>1207</v>
+        <v>494.0000000000001</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -636,7 +633,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>20151124</v>
+        <v>20160607</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -645,13 +642,13 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>12.28</v>
+        <v>4.82</v>
       </c>
       <c r="F11">
-        <v>1228</v>
+        <v>482</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -659,7 +656,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>20151221</v>
+        <v>20160623</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -671,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.51</v>
+        <v>4.74</v>
       </c>
       <c r="F12">
-        <v>1251</v>
+        <v>474</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -682,7 +679,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>20151229</v>
+        <v>20160629</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -691,13 +688,13 @@
         <v>8</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>12.09</v>
+        <v>4.77</v>
       </c>
       <c r="F13">
-        <v>1209</v>
+        <v>476.9999999999999</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -705,7 +702,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>20160321</v>
+        <v>20161019</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -717,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.8</v>
+        <v>4.93</v>
       </c>
       <c r="F14">
-        <v>1080</v>
+        <v>493</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -728,7 +725,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>20160408</v>
+        <v>20161021</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -740,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.57</v>
+        <v>4.9</v>
       </c>
       <c r="F15">
-        <v>1057</v>
+        <v>490.0000000000001</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -751,7 +748,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>20160411</v>
+        <v>20161111</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -763,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.72</v>
+        <v>4.92</v>
       </c>
       <c r="F16">
-        <v>1072</v>
+        <v>492</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -774,7 +771,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>20160412</v>
+        <v>20161125</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -786,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.67</v>
+        <v>4.92</v>
       </c>
       <c r="F17">
-        <v>1067</v>
+        <v>492</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -797,7 +794,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>20160413</v>
+        <v>20170210</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -809,10 +806,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.81</v>
+        <v>4.62</v>
       </c>
       <c r="F18">
-        <v>1081</v>
+        <v>462</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -820,7 +817,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>20160420</v>
+        <v>20170217</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -832,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.52</v>
+        <v>4.56</v>
       </c>
       <c r="F19">
-        <v>1052</v>
+        <v>455.9999999999999</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -843,7 +840,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>20160608</v>
+        <v>20170412</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -855,10 +852,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.5</v>
+        <v>4.65</v>
       </c>
       <c r="F20">
-        <v>1050</v>
+        <v>465.0000000000001</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -866,7 +863,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>20160616</v>
+        <v>20170419</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -878,10 +875,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.57</v>
+        <v>4.63</v>
       </c>
       <c r="F21">
-        <v>857</v>
+        <v>463</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -889,7 +886,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>20160815</v>
+        <v>20170503</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -901,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.68</v>
+        <v>4.61</v>
       </c>
       <c r="F22">
-        <v>968</v>
+        <v>461.0000000000001</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -912,7 +909,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>20160829</v>
+        <v>20170508</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -924,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.42</v>
+        <v>4.36</v>
       </c>
       <c r="F23">
-        <v>942</v>
+        <v>436.0000000000001</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -935,7 +932,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>20161115</v>
+        <v>20170525</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -947,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.23</v>
+        <v>4.55</v>
       </c>
       <c r="F24">
-        <v>923</v>
+        <v>455</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -958,22 +955,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>20161207</v>
+        <v>20170612</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>9.48</v>
+        <v>4.6</v>
       </c>
       <c r="F25">
-        <v>948</v>
+        <v>459.9999999999999</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -981,7 +978,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>20170126</v>
+        <v>20171031</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -993,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>9.33</v>
+        <v>6.04</v>
       </c>
       <c r="F26">
-        <v>933</v>
+        <v>604</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1004,7 +1001,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>20170301</v>
+        <v>20171116</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -1016,10 +1013,10 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>9.49</v>
+        <v>6.6</v>
       </c>
       <c r="F27">
-        <v>949</v>
+        <v>660</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1027,7 +1024,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
-        <v>20170601</v>
+        <v>20180105</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -1039,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>9.19</v>
+        <v>6.32</v>
       </c>
       <c r="F28">
-        <v>919</v>
+        <v>632</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1050,7 +1047,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1">
-        <v>20170616</v>
+        <v>20180129</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -1059,13 +1056,13 @@
         <v>8</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>9.02</v>
+        <v>6.64</v>
       </c>
       <c r="F29">
-        <v>902</v>
+        <v>664</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1073,7 +1070,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1">
-        <v>20170620</v>
+        <v>20180312</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -1085,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>9.119999999999999</v>
+        <v>6.33</v>
       </c>
       <c r="F30">
-        <v>911.9999999999999</v>
+        <v>633</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1096,7 +1093,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1">
-        <v>20170727</v>
+        <v>20180315</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -1108,10 +1105,10 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>10.59</v>
+        <v>6.34</v>
       </c>
       <c r="F31">
-        <v>1059</v>
+        <v>634</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1119,7 +1116,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1">
-        <v>20170825</v>
+        <v>20180713</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -1131,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>11.11</v>
+        <v>4.99</v>
       </c>
       <c r="F32">
-        <v>1111</v>
+        <v>499</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1142,7 +1139,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1">
-        <v>20170913</v>
+        <v>20180716</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -1151,13 +1148,13 @@
         <v>8</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>11.43</v>
+        <v>4.97</v>
       </c>
       <c r="F33">
-        <v>1143</v>
+        <v>497</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1165,7 +1162,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1">
-        <v>20171012</v>
+        <v>20180727</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -1177,10 +1174,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>11.55</v>
+        <v>4.9</v>
       </c>
       <c r="F34">
-        <v>1155</v>
+        <v>490.0000000000001</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1188,7 +1185,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1">
-        <v>20171023</v>
+        <v>20180730</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -1200,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>11.19</v>
+        <v>4.79</v>
       </c>
       <c r="F35">
-        <v>1119</v>
+        <v>479</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1211,7 +1208,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1">
-        <v>20171108</v>
+        <v>20180921</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -1223,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>12.13</v>
+        <v>4.2</v>
       </c>
       <c r="F36">
-        <v>1213</v>
+        <v>420</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1234,7 +1231,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1">
-        <v>20171127</v>
+        <v>20181008</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -1243,13 +1240,13 @@
         <v>8</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>13.93</v>
+        <v>4.17</v>
       </c>
       <c r="F37">
-        <v>1393</v>
+        <v>417</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1257,7 +1254,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1">
-        <v>20171226</v>
+        <v>20181113</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -1269,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>13.66</v>
+        <v>3.92</v>
       </c>
       <c r="F38">
-        <v>1366</v>
+        <v>392</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1280,7 +1277,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1">
-        <v>20171227</v>
+        <v>20181122</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -1292,10 +1289,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>13.29</v>
+        <v>3.9</v>
       </c>
       <c r="F39">
-        <v>1329</v>
+        <v>390</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1303,7 +1300,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1">
-        <v>20180102</v>
+        <v>20190117</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -1315,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>13.7</v>
+        <v>3.47</v>
       </c>
       <c r="F40">
-        <v>1370</v>
+        <v>347</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1326,7 +1323,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1">
-        <v>20180103</v>
+        <v>20190122</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -1338,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>13.33</v>
+        <v>3.44</v>
       </c>
       <c r="F41">
-        <v>1333</v>
+        <v>344</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1349,7 +1346,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1">
-        <v>20180115</v>
+        <v>20190213</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -1361,10 +1358,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>14.2</v>
+        <v>3.68</v>
       </c>
       <c r="F42">
-        <v>1420</v>
+        <v>368</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1372,7 +1369,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1">
-        <v>20180129</v>
+        <v>20190312</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -1381,291 +1378,15 @@
         <v>8</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>13.74</v>
+        <v>4.71</v>
       </c>
       <c r="F43">
-        <v>1374</v>
+        <v>471</v>
       </c>
       <c r="G43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="1">
-        <v>20180824</v>
-      </c>
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>10.03</v>
-      </c>
-      <c r="F44">
-        <v>1003</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="1">
-        <v>20180906</v>
-      </c>
-      <c r="B45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="F45">
-        <v>997.0000000000001</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="1">
-        <v>20180921</v>
-      </c>
-      <c r="B46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>10.67</v>
-      </c>
-      <c r="F46">
-        <v>1067</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="1">
-        <v>20181011</v>
-      </c>
-      <c r="B47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="F47">
-        <v>986</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="1">
-        <v>20181024</v>
-      </c>
-      <c r="B48" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>11.04</v>
-      </c>
-      <c r="F48">
-        <v>1104</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="1">
-        <v>20181101</v>
-      </c>
-      <c r="B49" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>10.83</v>
-      </c>
-      <c r="F49">
-        <v>1083</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="1">
-        <v>20181102</v>
-      </c>
-      <c r="B50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>11.09</v>
-      </c>
-      <c r="F50">
-        <v>1109</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="1">
-        <v>20181105</v>
-      </c>
-      <c r="B51" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>10.92</v>
-      </c>
-      <c r="F51">
-        <v>1092</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="1">
-        <v>20190116</v>
-      </c>
-      <c r="B52" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>10.48</v>
-      </c>
-      <c r="F52">
-        <v>1048</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="1">
-        <v>20190311</v>
-      </c>
-      <c r="B53" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>12.32</v>
-      </c>
-      <c r="F53">
-        <v>1232</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="1">
-        <v>20190402</v>
-      </c>
-      <c r="B54" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>13.36</v>
-      </c>
-      <c r="F54">
-        <v>1336</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="1">
-        <v>20190425</v>
-      </c>
-      <c r="B55" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>14.13</v>
-      </c>
-      <c r="F55">
-        <v>1413</v>
-      </c>
-      <c r="G55">
         <v>0</v>
       </c>
     </row>
